--- a/Code/Results/Cases/Case_9_38/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_38/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.10180235948618</v>
+        <v>11.92317513170707</v>
       </c>
       <c r="C2">
-        <v>6.627928097789596</v>
+        <v>7.528101698577318</v>
       </c>
       <c r="D2">
-        <v>4.35536610463646</v>
+        <v>5.038515935030293</v>
       </c>
       <c r="E2">
-        <v>8.206629530865383</v>
+        <v>8.544139215366791</v>
       </c>
       <c r="F2">
-        <v>33.09438983770288</v>
+        <v>30.27404667741703</v>
       </c>
       <c r="G2">
-        <v>43.50019818618126</v>
+        <v>38.45801739394902</v>
       </c>
       <c r="H2">
-        <v>3.376415681485386</v>
+        <v>3.21268650362153</v>
       </c>
       <c r="I2">
-        <v>4.234712883440332</v>
+        <v>3.920772276302641</v>
       </c>
       <c r="J2">
-        <v>13.91752587939774</v>
+        <v>12.87045247864851</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.225696459481178</v>
+        <v>15.81650449336343</v>
       </c>
       <c r="M2">
-        <v>10.64615055385814</v>
+        <v>14.21947772460733</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.213468634845697</v>
       </c>
       <c r="O2">
-        <v>10.71848978479301</v>
+        <v>10.94370819860608</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>11.02455668316446</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.30178490970128</v>
+        <v>11.17492854639626</v>
       </c>
       <c r="C3">
-        <v>6.24563924428339</v>
+        <v>6.981000212446488</v>
       </c>
       <c r="D3">
-        <v>4.142951289401397</v>
+        <v>4.776093852538739</v>
       </c>
       <c r="E3">
-        <v>7.851894783783554</v>
+        <v>8.190422668757648</v>
       </c>
       <c r="F3">
-        <v>32.24508560388911</v>
+        <v>29.69414154095261</v>
       </c>
       <c r="G3">
-        <v>42.26412027919704</v>
+        <v>37.75706746979373</v>
       </c>
       <c r="H3">
-        <v>3.623459288048118</v>
+        <v>3.441513325409884</v>
       </c>
       <c r="I3">
-        <v>4.435274151249375</v>
+        <v>4.092478253533572</v>
       </c>
       <c r="J3">
-        <v>13.74702616006898</v>
+        <v>12.74882334016371</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.080973008522668</v>
+        <v>15.83079291532845</v>
       </c>
       <c r="M3">
-        <v>10.00839593816875</v>
+        <v>14.05825088184879</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.088561461356217</v>
       </c>
       <c r="O3">
-        <v>10.23117733678113</v>
+        <v>10.28700628701868</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.50668684678847</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.77982634357244</v>
+        <v>10.68715027438614</v>
       </c>
       <c r="C4">
-        <v>6.003487696532448</v>
+        <v>6.630843982901776</v>
       </c>
       <c r="D4">
-        <v>4.009197154263501</v>
+        <v>4.610453341836299</v>
       </c>
       <c r="E4">
-        <v>7.626080713930722</v>
+        <v>7.965711696096159</v>
       </c>
       <c r="F4">
-        <v>31.71302349734593</v>
+        <v>29.33176049574611</v>
       </c>
       <c r="G4">
-        <v>41.48594628446891</v>
+        <v>37.32073711679651</v>
       </c>
       <c r="H4">
-        <v>3.780532815018684</v>
+        <v>3.587122908293093</v>
       </c>
       <c r="I4">
-        <v>4.563233394052435</v>
+        <v>4.202365379901967</v>
       </c>
       <c r="J4">
-        <v>13.64174289198679</v>
+        <v>12.67203283268916</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.989208041706585</v>
+        <v>15.83378260859426</v>
       </c>
       <c r="M4">
-        <v>9.596179772070796</v>
+        <v>13.97208505735783</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.009406802166035</v>
       </c>
       <c r="O4">
-        <v>9.922107093604058</v>
+        <v>9.862501661780499</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>10.17764790833772</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.5560195188315</v>
+        <v>10.47834334289841</v>
       </c>
       <c r="C5">
-        <v>5.913562963361101</v>
+        <v>6.49575625326321</v>
       </c>
       <c r="D5">
-        <v>3.958822642624309</v>
+        <v>4.546158818547339</v>
       </c>
       <c r="E5">
-        <v>7.533297338244063</v>
+        <v>7.873344390830638</v>
       </c>
       <c r="F5">
-        <v>31.47312440607191</v>
+        <v>29.16516567979705</v>
       </c>
       <c r="G5">
-        <v>41.12777230063966</v>
+        <v>37.11098921735213</v>
       </c>
       <c r="H5">
-        <v>3.846310622793362</v>
+        <v>3.648094829893926</v>
       </c>
       <c r="I5">
-        <v>4.619079999250512</v>
+        <v>4.251119947472196</v>
       </c>
       <c r="J5">
-        <v>13.59157501841675</v>
+        <v>12.63416731034492</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.950221290266509</v>
+        <v>15.82190489978476</v>
       </c>
       <c r="M5">
-        <v>9.424996819966074</v>
+        <v>13.9316665964225</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.975804785147633</v>
       </c>
       <c r="O5">
-        <v>9.796180505349367</v>
+        <v>9.685931555778287</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.04298775635782</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.51430631820286</v>
+        <v>10.43970081194745</v>
       </c>
       <c r="C6">
-        <v>5.911518401617365</v>
+        <v>6.486786008800811</v>
       </c>
       <c r="D6">
-        <v>3.956429961444382</v>
+        <v>4.540635989892153</v>
       </c>
       <c r="E6">
-        <v>7.519232852134349</v>
+        <v>7.859153334362421</v>
       </c>
       <c r="F6">
-        <v>31.40789257083777</v>
+        <v>29.11608926480078</v>
       </c>
       <c r="G6">
-        <v>41.02329513959903</v>
+        <v>37.03874787529116</v>
       </c>
       <c r="H6">
-        <v>3.85779495167333</v>
+        <v>3.658702232680913</v>
       </c>
       <c r="I6">
-        <v>4.631572610511081</v>
+        <v>4.262915286322451</v>
       </c>
       <c r="J6">
-        <v>13.57451042780708</v>
+        <v>12.62044685933786</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.942634737382338</v>
+        <v>15.80564695609363</v>
       </c>
       <c r="M6">
-        <v>9.398659784831343</v>
+        <v>13.91462534008936</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.969286978103293</v>
       </c>
       <c r="O6">
-        <v>9.778029126245553</v>
+        <v>9.658409368858559</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.02299614867486</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.76595922412872</v>
+        <v>10.67544583575733</v>
       </c>
       <c r="C7">
-        <v>6.037028600656734</v>
+        <v>6.660313376052838</v>
       </c>
       <c r="D7">
-        <v>4.024653157099036</v>
+        <v>4.631974001733066</v>
       </c>
       <c r="E7">
-        <v>7.628762106357668</v>
+        <v>7.970456899828616</v>
       </c>
       <c r="F7">
-        <v>31.64146380667151</v>
+        <v>29.23916668943635</v>
       </c>
       <c r="G7">
-        <v>41.36015701455309</v>
+        <v>37.26114222552582</v>
       </c>
       <c r="H7">
-        <v>3.782704464992467</v>
+        <v>3.589733699279297</v>
       </c>
       <c r="I7">
-        <v>4.572323860454727</v>
+        <v>4.213327637393353</v>
       </c>
       <c r="J7">
-        <v>13.61736145470129</v>
+        <v>12.60050536079388</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.985795366337021</v>
+        <v>15.77820734635762</v>
       </c>
       <c r="M7">
-        <v>9.600309527894051</v>
+        <v>13.92888378094624</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.005364390351047</v>
       </c>
       <c r="O7">
-        <v>9.928187967327743</v>
+        <v>9.864358358065168</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>10.1838247203377</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81901139625871</v>
+        <v>11.66112571103028</v>
       </c>
       <c r="C8">
-        <v>6.54054216568171</v>
+        <v>7.371091547640697</v>
       </c>
       <c r="D8">
-        <v>4.302892168425086</v>
+        <v>4.992725461378362</v>
       </c>
       <c r="E8">
-        <v>8.090953620997228</v>
+        <v>8.436394571770068</v>
       </c>
       <c r="F8">
-        <v>32.71653782580184</v>
+        <v>29.896866094409</v>
       </c>
       <c r="G8">
-        <v>42.92395060402883</v>
+        <v>38.23356997882123</v>
       </c>
       <c r="H8">
-        <v>3.462129144320161</v>
+        <v>3.294085657301725</v>
       </c>
       <c r="I8">
-        <v>4.313479328887368</v>
+        <v>3.993424850566576</v>
       </c>
       <c r="J8">
-        <v>13.82815442370957</v>
+        <v>12.63802578132201</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.172727555170131</v>
+        <v>15.72175628044304</v>
       </c>
       <c r="M8">
-        <v>10.4384721112234</v>
+        <v>14.07500787812428</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.164173927519019</v>
       </c>
       <c r="O8">
-        <v>10.56225644747586</v>
+        <v>10.72429407466143</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.86053257515806</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.65914753283239</v>
+        <v>13.38291292604525</v>
       </c>
       <c r="C9">
-        <v>7.412456798585014</v>
+        <v>8.612956836996746</v>
       </c>
       <c r="D9">
-        <v>4.793854855332907</v>
+        <v>5.607497528539402</v>
       </c>
       <c r="E9">
-        <v>8.925108626925947</v>
+        <v>9.272321040705226</v>
       </c>
       <c r="F9">
-        <v>34.84780309021816</v>
+        <v>31.35066268241759</v>
       </c>
       <c r="G9">
-        <v>46.02937969925559</v>
+        <v>40.09834948524313</v>
       </c>
       <c r="H9">
-        <v>2.873005729601927</v>
+        <v>2.74960403480259</v>
       </c>
       <c r="I9">
-        <v>3.829580101897839</v>
+        <v>3.578720761295931</v>
       </c>
       <c r="J9">
-        <v>14.27697993380362</v>
+        <v>12.91312026092435</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.520630086981362</v>
+        <v>15.69089829118651</v>
       </c>
       <c r="M9">
-        <v>11.90740767445932</v>
+        <v>14.56377035733668</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.463993703086075</v>
       </c>
       <c r="O9">
-        <v>11.70982330566312</v>
+        <v>12.23662726643239</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>12.07891251945522</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87070241282877</v>
+        <v>14.52652359576988</v>
       </c>
       <c r="C10">
-        <v>8.032576966086886</v>
+        <v>9.429556544208188</v>
       </c>
       <c r="D10">
-        <v>5.100519550078362</v>
+        <v>6.025064590143817</v>
       </c>
       <c r="E10">
-        <v>9.329159393042707</v>
+        <v>9.688571753237122</v>
       </c>
       <c r="F10">
-        <v>35.99573239089013</v>
+        <v>31.92481940260551</v>
       </c>
       <c r="G10">
-        <v>47.67418797586467</v>
+        <v>41.25836313238424</v>
       </c>
       <c r="H10">
-        <v>2.496898784661826</v>
+        <v>2.407519152014853</v>
       </c>
       <c r="I10">
-        <v>3.507511536103504</v>
+        <v>3.308921636672221</v>
       </c>
       <c r="J10">
-        <v>14.4946331070605</v>
+        <v>12.75181907296133</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.678300479271416</v>
+        <v>15.44355274433449</v>
       </c>
       <c r="M10">
-        <v>12.89538360251946</v>
+        <v>14.77051504458269</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.587855284218143</v>
       </c>
       <c r="O10">
-        <v>12.41426412771965</v>
+        <v>13.24200517756349</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.82842532401892</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.45741709137174</v>
+        <v>15.14396142422814</v>
       </c>
       <c r="C11">
-        <v>8.368986182494417</v>
+        <v>9.629881831608669</v>
       </c>
       <c r="D11">
-        <v>4.900078173434352</v>
+        <v>5.840841336401139</v>
       </c>
       <c r="E11">
-        <v>8.124411424541474</v>
+        <v>8.477344353044804</v>
       </c>
       <c r="F11">
-        <v>33.67514175584814</v>
+        <v>29.57253291609328</v>
       </c>
       <c r="G11">
-        <v>44.248911591683</v>
+        <v>38.86278993247628</v>
       </c>
       <c r="H11">
-        <v>3.286398400385838</v>
+        <v>3.226343162991036</v>
       </c>
       <c r="I11">
-        <v>3.435479053302365</v>
+        <v>3.257394175964932</v>
       </c>
       <c r="J11">
-        <v>13.73598165666094</v>
+        <v>11.62899755099462</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.112886663800958</v>
+        <v>14.31234737908981</v>
       </c>
       <c r="M11">
-        <v>13.38885145007253</v>
+        <v>13.7718796691509</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.041421889205377</v>
       </c>
       <c r="O11">
-        <v>11.99202798226887</v>
+        <v>13.69919896127137</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.38693798406305</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.72218337127664</v>
+        <v>15.44596039532822</v>
       </c>
       <c r="C12">
-        <v>8.489161485957968</v>
+        <v>9.603045386953255</v>
       </c>
       <c r="D12">
-        <v>4.6445322294955</v>
+        <v>5.55264814407176</v>
       </c>
       <c r="E12">
-        <v>7.119053407721069</v>
+        <v>7.447236782416593</v>
       </c>
       <c r="F12">
-        <v>31.56703319915977</v>
+        <v>27.65763709612962</v>
       </c>
       <c r="G12">
-        <v>41.1666272795746</v>
+        <v>36.56460076856148</v>
       </c>
       <c r="H12">
-        <v>4.52939241155349</v>
+        <v>4.485431350440646</v>
       </c>
       <c r="I12">
-        <v>3.421556794051372</v>
+        <v>3.246250946613217</v>
       </c>
       <c r="J12">
-        <v>13.09065968176617</v>
+        <v>10.95905980577163</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.723426019988255</v>
+        <v>13.5515028406469</v>
       </c>
       <c r="M12">
-        <v>13.59987006651103</v>
+        <v>12.99460678689582</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.680985031469639</v>
       </c>
       <c r="O12">
-        <v>11.47108836960175</v>
+        <v>13.87966835046957</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.83829414030163</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.75159100816092</v>
+        <v>15.52110998803178</v>
       </c>
       <c r="C13">
-        <v>8.495225210470629</v>
+        <v>9.451165237611733</v>
       </c>
       <c r="D13">
-        <v>4.344354860805885</v>
+        <v>5.161192222494006</v>
       </c>
       <c r="E13">
-        <v>6.242948719592484</v>
+        <v>6.527162289501766</v>
       </c>
       <c r="F13">
-        <v>29.3774754057877</v>
+        <v>25.92736516628985</v>
       </c>
       <c r="G13">
-        <v>37.95426920815731</v>
+        <v>33.93267864127347</v>
       </c>
       <c r="H13">
-        <v>5.885417485792711</v>
+        <v>5.847013918837705</v>
       </c>
       <c r="I13">
-        <v>3.465249359555804</v>
+        <v>3.280682503530221</v>
       </c>
       <c r="J13">
-        <v>12.45782558177036</v>
+        <v>10.60980044988513</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.461163055185978</v>
+        <v>12.98493184511456</v>
       </c>
       <c r="M13">
-        <v>13.6203819238091</v>
+        <v>12.32773619060375</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.456160985648729</v>
       </c>
       <c r="O13">
-        <v>10.83993366628</v>
+        <v>13.873019262364</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.16670460628805</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.66414136531583</v>
+        <v>15.4703916222397</v>
       </c>
       <c r="C14">
-        <v>8.457284260072944</v>
+        <v>9.294364246336183</v>
       </c>
       <c r="D14">
-        <v>4.114639645813031</v>
+        <v>4.841464577009158</v>
       </c>
       <c r="E14">
-        <v>5.745988298922162</v>
+        <v>5.992813039379423</v>
       </c>
       <c r="F14">
-        <v>27.79317942128651</v>
+        <v>24.78003865904109</v>
       </c>
       <c r="G14">
-        <v>35.6143327547364</v>
+        <v>31.92858152949862</v>
       </c>
       <c r="H14">
-        <v>6.866794482753784</v>
+        <v>6.829415457714745</v>
       </c>
       <c r="I14">
-        <v>3.52424059822846</v>
+        <v>3.328425845470774</v>
       </c>
       <c r="J14">
-        <v>12.01933794739445</v>
+        <v>10.47968102166596</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.364034819896462</v>
+        <v>12.66105874887038</v>
       </c>
       <c r="M14">
-        <v>13.55084298833957</v>
+        <v>11.90806113896348</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.385817737367705</v>
       </c>
       <c r="O14">
-        <v>10.34361949006548</v>
+        <v>13.78517847540051</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.6356148669967</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.58860754311442</v>
+        <v>15.40620563427672</v>
       </c>
       <c r="C15">
-        <v>8.43438052263981</v>
+        <v>9.239059247803381</v>
       </c>
       <c r="D15">
-        <v>4.053565985274465</v>
+        <v>4.74715340278408</v>
       </c>
       <c r="E15">
-        <v>5.641003601253678</v>
+        <v>5.878555317110115</v>
       </c>
       <c r="F15">
-        <v>27.36934602511482</v>
+        <v>24.51311439584137</v>
       </c>
       <c r="G15">
-        <v>34.97964169093339</v>
+        <v>31.35374065871208</v>
       </c>
       <c r="H15">
-        <v>7.09929804825034</v>
+        <v>7.061170938757942</v>
       </c>
       <c r="I15">
-        <v>3.555502635771726</v>
+        <v>3.355053848771473</v>
       </c>
       <c r="J15">
-        <v>11.90781338517953</v>
+        <v>10.4895081664411</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.350168971138316</v>
+        <v>12.60135640827833</v>
       </c>
       <c r="M15">
-        <v>13.49458111279409</v>
+        <v>11.81610724815837</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.379051320416823</v>
       </c>
       <c r="O15">
-        <v>10.2013993476237</v>
+        <v>13.72477303320153</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.48194388441804</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.0881181601379</v>
+        <v>14.92399214949133</v>
       </c>
       <c r="C16">
-        <v>8.198361077688967</v>
+        <v>8.97722020606793</v>
       </c>
       <c r="D16">
-        <v>3.976201430640748</v>
+        <v>4.58010247458786</v>
       </c>
       <c r="E16">
-        <v>5.601461445576644</v>
+        <v>5.842906567619249</v>
       </c>
       <c r="F16">
-        <v>27.2250465931425</v>
+        <v>24.76514152739053</v>
       </c>
       <c r="G16">
-        <v>34.75437511467337</v>
+        <v>30.92396809003603</v>
       </c>
       <c r="H16">
-        <v>6.937100713024762</v>
+        <v>6.888930829295366</v>
       </c>
       <c r="I16">
-        <v>3.688682646540531</v>
+        <v>3.464420122324924</v>
       </c>
       <c r="J16">
-        <v>11.92438622838918</v>
+        <v>10.89994201341823</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.324813735175807</v>
+        <v>12.8358565877008</v>
       </c>
       <c r="M16">
-        <v>13.09226969300803</v>
+        <v>11.97007730765943</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.363142843593079</v>
       </c>
       <c r="O16">
-        <v>10.00454812378837</v>
+        <v>13.32779606056542</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.26259811199781</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.7431961528682</v>
+        <v>14.57373418974302</v>
       </c>
       <c r="C17">
-        <v>8.035481034723299</v>
+        <v>8.854956197877623</v>
       </c>
       <c r="D17">
-        <v>4.043896690587368</v>
+        <v>4.636301277831946</v>
       </c>
       <c r="E17">
-        <v>5.813032224614053</v>
+        <v>6.072347186990693</v>
       </c>
       <c r="F17">
-        <v>27.96243316180934</v>
+        <v>25.54157606748284</v>
       </c>
       <c r="G17">
-        <v>35.83904229919803</v>
+        <v>31.71646712283904</v>
       </c>
       <c r="H17">
-        <v>6.268578049904781</v>
+        <v>6.210214197971848</v>
       </c>
       <c r="I17">
-        <v>3.760531677053235</v>
+        <v>3.524660842393616</v>
       </c>
       <c r="J17">
-        <v>12.16784479656694</v>
+        <v>11.26335950689118</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.341711533652306</v>
+        <v>13.19048560473793</v>
       </c>
       <c r="M17">
-        <v>12.81557614645367</v>
+        <v>12.28846380082157</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.375306913500108</v>
       </c>
       <c r="O17">
-        <v>10.12607760175944</v>
+        <v>13.06392408439728</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.38741406481164</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.50847731377353</v>
+        <v>14.31051421616017</v>
       </c>
       <c r="C18">
-        <v>7.896290748837904</v>
+        <v>8.826598412670178</v>
       </c>
       <c r="D18">
-        <v>4.234435600694953</v>
+        <v>4.868884581967987</v>
       </c>
       <c r="E18">
-        <v>6.39904575496693</v>
+        <v>6.682655116454271</v>
       </c>
       <c r="F18">
-        <v>29.61183570648576</v>
+        <v>26.97636839378777</v>
       </c>
       <c r="G18">
-        <v>38.28592356972166</v>
+        <v>33.64475984722353</v>
       </c>
       <c r="H18">
-        <v>5.133158802189379</v>
+        <v>5.061165851531643</v>
       </c>
       <c r="I18">
-        <v>3.775932970601925</v>
+        <v>3.535593418047433</v>
       </c>
       <c r="J18">
-        <v>12.66101004662638</v>
+        <v>11.72141925053056</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.482424559695924</v>
+        <v>13.76010068888236</v>
       </c>
       <c r="M18">
-        <v>12.61758277269945</v>
+        <v>12.84432213706989</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.496796478316616</v>
       </c>
       <c r="O18">
-        <v>10.53066435046324</v>
+        <v>12.8892011005028</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.81697994610545</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.36881222534278</v>
+        <v>14.12794482947804</v>
       </c>
       <c r="C19">
-        <v>7.848159515968211</v>
+        <v>8.935286339136171</v>
       </c>
       <c r="D19">
-        <v>4.531681831053384</v>
+        <v>5.239332534222626</v>
       </c>
       <c r="E19">
-        <v>7.383836207371573</v>
+        <v>7.691726437379873</v>
       </c>
       <c r="F19">
-        <v>31.79241668323547</v>
+        <v>28.79238032266702</v>
       </c>
       <c r="G19">
-        <v>41.48620546113624</v>
+        <v>36.17691724896738</v>
       </c>
       <c r="H19">
-        <v>3.84634188373331</v>
+        <v>3.755830478248112</v>
       </c>
       <c r="I19">
-        <v>3.758421934356571</v>
+        <v>3.523282489741637</v>
       </c>
       <c r="J19">
-        <v>13.29792107776339</v>
+        <v>12.23462381619189</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.822124644985087</v>
+        <v>14.44719542677464</v>
       </c>
       <c r="M19">
-        <v>12.51282030602762</v>
+        <v>13.53372037478352</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.80540017764895</v>
       </c>
       <c r="O19">
-        <v>11.13877698148823</v>
+        <v>12.8131915583159</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.46297427706701</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.5364704724607</v>
+        <v>14.21182929015452</v>
       </c>
       <c r="C20">
-        <v>7.958762410317386</v>
+        <v>9.320545112072544</v>
       </c>
       <c r="D20">
-        <v>5.059851392204198</v>
+        <v>5.925781320504163</v>
       </c>
       <c r="E20">
-        <v>9.227408758946572</v>
+        <v>9.574258559252838</v>
       </c>
       <c r="F20">
-        <v>35.49659840159906</v>
+        <v>31.70904417641751</v>
       </c>
       <c r="G20">
-        <v>46.89947852747724</v>
+        <v>40.51108707336528</v>
       </c>
       <c r="H20">
-        <v>2.597626812823813</v>
+        <v>2.496638856146647</v>
       </c>
       <c r="I20">
-        <v>3.618789162121345</v>
+        <v>3.409346628285272</v>
       </c>
       <c r="J20">
-        <v>14.36529745391602</v>
+        <v>12.90246009449161</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.626098979701347</v>
+        <v>15.45991963180211</v>
       </c>
       <c r="M20">
-        <v>12.65898473983351</v>
+        <v>14.66389677831036</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.549351664933188</v>
       </c>
       <c r="O20">
-        <v>12.24845978259167</v>
+        <v>13.00334009351695</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.64500358622241</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.41373806604929</v>
+        <v>15.03675426889447</v>
       </c>
       <c r="C21">
-        <v>8.397375754964546</v>
+        <v>9.859986953254145</v>
       </c>
       <c r="D21">
-        <v>5.342550819681587</v>
+        <v>6.434661067797083</v>
       </c>
       <c r="E21">
-        <v>9.783039482213601</v>
+        <v>10.18705831914533</v>
       </c>
       <c r="F21">
-        <v>36.89479515269965</v>
+        <v>32.04856129696259</v>
       </c>
       <c r="G21">
-        <v>48.92450358589593</v>
+        <v>42.82370255083542</v>
       </c>
       <c r="H21">
-        <v>2.266741428015893</v>
+        <v>2.202804290172145</v>
       </c>
       <c r="I21">
-        <v>3.362917636155923</v>
+        <v>3.203833793646354</v>
       </c>
       <c r="J21">
-        <v>14.69565689536833</v>
+        <v>12.06179600541794</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.871039874355373</v>
+        <v>15.19545080946182</v>
       </c>
       <c r="M21">
-        <v>13.37112491058062</v>
+        <v>14.74869693663543</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.743908133977296</v>
       </c>
       <c r="O21">
-        <v>12.89874229919156</v>
+        <v>13.71373023248898</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>13.35379058729547</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.97606701110654</v>
+        <v>15.56881677283633</v>
       </c>
       <c r="C22">
-        <v>8.646033990172606</v>
+        <v>10.15618255049933</v>
       </c>
       <c r="D22">
-        <v>5.48654737548255</v>
+        <v>6.726863145359816</v>
       </c>
       <c r="E22">
-        <v>10.04729500059543</v>
+        <v>10.49061346824984</v>
       </c>
       <c r="F22">
-        <v>37.70293794553943</v>
+        <v>32.15650219467307</v>
       </c>
       <c r="G22">
-        <v>50.11165490933243</v>
+        <v>44.31393005214817</v>
       </c>
       <c r="H22">
-        <v>2.068485644682223</v>
+        <v>2.028257966268821</v>
       </c>
       <c r="I22">
-        <v>3.191060394349035</v>
+        <v>3.061819560578992</v>
       </c>
       <c r="J22">
-        <v>14.8884410071699</v>
+        <v>11.47512699462962</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.989453462382385</v>
+        <v>14.99100029977452</v>
       </c>
       <c r="M22">
-        <v>13.81589272728725</v>
+        <v>14.77261112680836</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.830993732679791</v>
       </c>
       <c r="O22">
-        <v>13.26077837221626</v>
+        <v>14.15491181454514</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.75151806057722</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.68763738624845</v>
+        <v>15.29407368286164</v>
       </c>
       <c r="C23">
-        <v>8.483147830076131</v>
+        <v>9.977668567151779</v>
       </c>
       <c r="D23">
-        <v>5.395478303758741</v>
+        <v>6.541523187930578</v>
       </c>
       <c r="E23">
-        <v>9.903286586589596</v>
+        <v>10.32004167294196</v>
       </c>
       <c r="F23">
-        <v>37.34130859367036</v>
+        <v>32.230921177766</v>
       </c>
       <c r="G23">
-        <v>49.59980225427916</v>
+        <v>43.50859080162136</v>
       </c>
       <c r="H23">
-        <v>2.172660018934919</v>
+        <v>2.11889802013536</v>
       </c>
       <c r="I23">
-        <v>3.271342258745078</v>
+        <v>3.123187198049667</v>
       </c>
       <c r="J23">
-        <v>14.81088734835242</v>
+        <v>11.91233934497625</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.92940367718067</v>
+        <v>15.16749330463051</v>
       </c>
       <c r="M23">
-        <v>13.57450274650878</v>
+        <v>14.83371626232977</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.789489158505685</v>
       </c>
       <c r="O23">
-        <v>13.06155714828143</v>
+        <v>13.91871368353835</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>13.53200602401387</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.52957540693709</v>
+        <v>14.19886132216109</v>
       </c>
       <c r="C24">
-        <v>7.899775913116929</v>
+        <v>9.275155681319921</v>
       </c>
       <c r="D24">
-        <v>5.064876962757575</v>
+        <v>5.940161759223006</v>
       </c>
       <c r="E24">
-        <v>9.347342093988743</v>
+        <v>9.696789129228364</v>
       </c>
       <c r="F24">
-        <v>35.83717249101053</v>
+        <v>32.00022574630805</v>
       </c>
       <c r="G24">
-        <v>47.42851144567405</v>
+        <v>40.93843339627709</v>
       </c>
       <c r="H24">
-        <v>2.576892834508777</v>
+        <v>2.476501777014745</v>
       </c>
       <c r="I24">
-        <v>3.6006939665829</v>
+        <v>3.388554418192892</v>
       </c>
       <c r="J24">
-        <v>14.47605507315519</v>
+        <v>12.99900601526882</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.691875409249241</v>
+        <v>15.59876172650245</v>
       </c>
       <c r="M24">
-        <v>12.63258232205198</v>
+        <v>14.80028743261624</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.611366649829479</v>
       </c>
       <c r="O24">
-        <v>12.29520250928188</v>
+        <v>12.98071856180974</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.69680268740337</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17059256345877</v>
+        <v>12.9260945494067</v>
       </c>
       <c r="C25">
-        <v>7.236544516489866</v>
+        <v>8.350203030275827</v>
       </c>
       <c r="D25">
-        <v>4.689489066652398</v>
+        <v>5.457187886128366</v>
       </c>
       <c r="E25">
-        <v>8.713045419786162</v>
+        <v>9.05533696023647</v>
       </c>
       <c r="F25">
-        <v>34.16906483403491</v>
+        <v>30.91106453255066</v>
       </c>
       <c r="G25">
-        <v>45.00944582525899</v>
+        <v>39.37098094148448</v>
       </c>
       <c r="H25">
-        <v>3.03018890803043</v>
+        <v>2.893653028765171</v>
       </c>
       <c r="I25">
-        <v>3.971671044468224</v>
+        <v>3.703957250610933</v>
       </c>
       <c r="J25">
-        <v>14.11563908388585</v>
+        <v>12.87601864497573</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.424330817327756</v>
+        <v>15.66686333359952</v>
       </c>
       <c r="M25">
-        <v>11.53753697733657</v>
+        <v>14.38618494339758</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.38255890712177</v>
       </c>
       <c r="O25">
-        <v>11.42104341302855</v>
+        <v>11.8563422100178</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>11.76903500164809</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
